--- a/data/trans_camb/P21_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P21_R-Estudios-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-10,13</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-3,65</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-6,5</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-11.79718323421529</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-2.856572508419064</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-6.746047157626012</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-23,46; 10,58</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-15,57; 8,25</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-15,22; 5,74</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-24.5726505216185</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-15.09430232918632</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-15.14136645399615</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-33,17%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-11,23%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-20,58%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>6.392462166792182</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>8.748332906824984</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>4.419006968023758</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-67,56; 64,52</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-39,74; 31,03</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-42,18; 22,04</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>-0.3861845110235853</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>-0.08788639756551542</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-0.2135095061899183</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-2,12</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-5,75</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-4,03</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.6943090528687111</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.380156401654338</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.4285107905511477</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-9,99; 7,36</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-12,21; 0,41</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-9,1; 1,48</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0.3723368647760839</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.343841713607366</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.169610327342028</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-10,86%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-22,75%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-17,89%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>-2.373415165420073</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-4.802693568410668</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-3.666241417542873</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-42,22; 46,13</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-42,84; 2,23</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-35,78; 7,92</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-10.36341809488843</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-11.13763284692222</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-8.882116449977124</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-4,7</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>1,86</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-1,34</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>7.023496558726761</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>1.601572574494828</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>1.648779122645353</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-12,43; 3,58</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-5,37; 8,77</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-6,82; 4,43</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>-0.1214281753847831</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>-0.1901959887090939</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.1627073679974568</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-22,78%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>8,18%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-6,19%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.4285417085150566</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.390623190701167</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.3449324986221397</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-50,68; 22,98</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-20,47; 45,23</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-27,24; 23,18</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>0.4282553328712141</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0.07332482770748337</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.08788200206034831</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,202 +775,221 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-7,36</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-4,25</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-5,84</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-4.358864040206257</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>2.597894956493943</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-0.8453190742450628</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-13,59; -1,73</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-9,34; 0,62</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-9,6; -1,86</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-12.55012360872464</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-4.727275739371882</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-6.757916782211295</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>-28,01%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>-16,13%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-22,19%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>3.645329327236142</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>9.942378476982633</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>4.624962708305817</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-45,85; -6,15</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-32,42; 2,5</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-34,32; -7,83</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>-0.2114771507630951</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>0.1145443361311907</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-0.03890905908851359</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>-6,5</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>-3,33</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-4,89</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.4905342747130329</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.185531165598628</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.2720396274996664</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-10,08; -2,27</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-6,5; -0,1</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-7,46; -2,41</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>0.2488070570018896</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0.5098601762699224</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.2558134817563991</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>-26,5%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>-12,82%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-19,32%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-4.684665377827396</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-1.717874319782986</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-3.162498351045953</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-38,8; -9,43</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-23,72; -0,5</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-28,07; -9,85</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-9.995056646839819</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-6.689245021135568</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-6.742442458738515</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>0.6539831584845167</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>2.324262613985476</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.3738475123977872</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>-0.2150952698224762</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>-0.0670963345940085</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>-0.1328259629074823</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.4101623553254939</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.2315176223383827</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.2673567321911219</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0.034915296644314</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0.1020592192682258</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0.01643161961618992</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A20:A23"/>
+  <mergeCells count="5">
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
